--- a/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
+++ b/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\CO\land\CApULAbIFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/land/CApULAbIFM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D56ACC1-B7F8-4D35-9E77-7C33C6D2FD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E94222-9826-364A-982C-4F7BF64334F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -144,7 +144,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -217,9 +216,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,9 +256,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,26 +291,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,26 +326,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,20 +508,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8">
-        <v>44531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C1" s="7">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -564,32 +529,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="4">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -606,14 +571,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1">
@@ -621,7 +586,7 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -629,7 +594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -637,16 +602,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -654,7 +619,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -663,7 +628,7 @@
         <v>523809.52380952385</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
     </row>
   </sheetData>
@@ -684,17 +649,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
